--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.670085303259497</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N2">
-        <v>0.670085303259497</v>
+        <v>2.747794</v>
       </c>
       <c r="O2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q2">
-        <v>5.33049318028569</v>
+        <v>0.1970849140291111</v>
       </c>
       <c r="R2">
-        <v>5.33049318028569</v>
+        <v>1.773764226262</v>
       </c>
       <c r="S2">
-        <v>0.02127992288963126</v>
+        <v>0.0007085663482020096</v>
       </c>
       <c r="T2">
-        <v>0.02127992288963126</v>
+        <v>0.0007085663482020094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.416639528447</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N3">
-        <v>10.416639528447</v>
+        <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q3">
-        <v>82.86381703610975</v>
+        <v>2.274036876710777</v>
       </c>
       <c r="R3">
-        <v>82.86381703610975</v>
+        <v>20.466331890397</v>
       </c>
       <c r="S3">
-        <v>0.3308015932541577</v>
+        <v>0.008175694285609582</v>
       </c>
       <c r="T3">
-        <v>0.3308015932541577</v>
+        <v>0.008175694285609578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,111 +658,111 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.4297498389217</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N4">
-        <v>12.4297498389217</v>
+        <v>3.662902</v>
       </c>
       <c r="O4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q4">
-        <v>98.87800318367933</v>
+        <v>0.2627208319717778</v>
       </c>
       <c r="R4">
-        <v>98.87800318367933</v>
+        <v>2.364487487746</v>
       </c>
       <c r="S4">
-        <v>0.3947320092278289</v>
+        <v>0.0009445428201538534</v>
       </c>
       <c r="T4">
-        <v>0.3947320092278289</v>
+        <v>0.0009445428201538531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.508987418190017</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H5">
-        <v>0.508987418190017</v>
+        <v>0.645523</v>
       </c>
       <c r="I5">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J5">
-        <v>0.04778393627150163</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.670085303259497</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N5">
-        <v>0.670085303259497</v>
+        <v>37.345108</v>
       </c>
       <c r="O5">
-        <v>0.02849429230548853</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P5">
-        <v>0.02849429230548853</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q5">
-        <v>0.341064988473126</v>
+        <v>2.678569572387111</v>
       </c>
       <c r="R5">
-        <v>0.341064988473126</v>
+        <v>24.107126151484</v>
       </c>
       <c r="S5">
-        <v>0.001361569447627003</v>
+        <v>0.009630083914139727</v>
       </c>
       <c r="T5">
-        <v>0.001361569447627003</v>
+        <v>0.009630083914139725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.416639528447</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N6">
-        <v>10.416639528447</v>
+        <v>2.747794</v>
       </c>
       <c r="O6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q6">
-        <v>5.301938459800315</v>
+        <v>7.398143468215111</v>
       </c>
       <c r="R6">
-        <v>5.301938459800315</v>
+        <v>66.58329121393599</v>
       </c>
       <c r="S6">
-        <v>0.02116592926286684</v>
+        <v>0.02659805559736264</v>
       </c>
       <c r="T6">
-        <v>0.02116592926286684</v>
+        <v>0.02659805559736263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H7">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4297498389217</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N7">
-        <v>12.4297498389217</v>
+        <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P7">
-        <v>0.5285549816889141</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q7">
-        <v>6.326586279260535</v>
+        <v>85.36244972780177</v>
       </c>
       <c r="R7">
-        <v>6.326586279260535</v>
+        <v>768.2620475502159</v>
       </c>
       <c r="S7">
-        <v>0.02525643756100778</v>
+        <v>0.3068979661643306</v>
       </c>
       <c r="T7">
-        <v>0.02525643756100778</v>
+        <v>0.3068979661643305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.18791744350908</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H8">
-        <v>2.18791744350908</v>
+        <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J8">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.670085303259497</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N8">
-        <v>0.670085303259497</v>
+        <v>3.662902</v>
       </c>
       <c r="O8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P8">
-        <v>0.02849429230548853</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q8">
-        <v>1.466091323640525</v>
+        <v>9.861974553409778</v>
       </c>
       <c r="R8">
-        <v>1.466091323640525</v>
+        <v>88.75777098068799</v>
       </c>
       <c r="S8">
-        <v>0.005852799968230278</v>
+        <v>0.03545610444003109</v>
       </c>
       <c r="T8">
-        <v>0.005852799968230278</v>
+        <v>0.03545610444003108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.18791744350908</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H9">
-        <v>2.18791744350908</v>
+        <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J9">
-        <v>0.2054025383568807</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.416639528447</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N9">
-        <v>10.416639528447</v>
+        <v>37.345108</v>
       </c>
       <c r="O9">
-        <v>0.4429507260055973</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P9">
-        <v>0.4429507260055973</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q9">
-        <v>22.79074732703539</v>
+        <v>100.5477364096391</v>
       </c>
       <c r="R9">
-        <v>22.79074732703539</v>
+        <v>904.929627686752</v>
       </c>
       <c r="S9">
-        <v>0.09098320348857283</v>
+        <v>0.3614926223994638</v>
       </c>
       <c r="T9">
-        <v>0.09098320348857283</v>
+        <v>0.3614926223994637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.519176</v>
+      </c>
+      <c r="H10">
+        <v>1.557528</v>
+      </c>
+      <c r="I10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J10">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.747794</v>
+      </c>
+      <c r="O10">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P10">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q10">
+        <v>0.4755295659146666</v>
+      </c>
+      <c r="R10">
+        <v>4.279766093231999</v>
+      </c>
+      <c r="S10">
+        <v>0.001709639977479315</v>
+      </c>
+      <c r="T10">
+        <v>0.001709639977479314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.519176</v>
+      </c>
+      <c r="H11">
+        <v>1.557528</v>
+      </c>
+      <c r="I11">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J11">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N11">
+        <v>31.705039</v>
+      </c>
+      <c r="O11">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P11">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q11">
+        <v>5.486831775954666</v>
+      </c>
+      <c r="R11">
+        <v>49.381485983592</v>
+      </c>
+      <c r="S11">
+        <v>0.01972644316202044</v>
+      </c>
+      <c r="T11">
+        <v>0.01972644316202044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.519176</v>
+      </c>
+      <c r="H12">
+        <v>1.557528</v>
+      </c>
+      <c r="I12">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J12">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.662902</v>
+      </c>
+      <c r="O12">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P12">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q12">
+        <v>0.6338969362506666</v>
+      </c>
+      <c r="R12">
+        <v>5.705072426256</v>
+      </c>
+      <c r="S12">
+        <v>0.00227900770319352</v>
+      </c>
+      <c r="T12">
+        <v>0.00227900770319352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.519176</v>
+      </c>
+      <c r="H13">
+        <v>1.557528</v>
+      </c>
+      <c r="I13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N13">
+        <v>37.345108</v>
+      </c>
+      <c r="O13">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P13">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q13">
+        <v>6.462894597002666</v>
+      </c>
+      <c r="R13">
+        <v>58.166051373024</v>
+      </c>
+      <c r="S13">
+        <v>0.02323561722606665</v>
+      </c>
+      <c r="T13">
+        <v>0.02323561722606664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.73909</v>
+      </c>
+      <c r="I14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.747794</v>
+      </c>
+      <c r="O14">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P14">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q14">
+        <v>2.057514563051111</v>
+      </c>
+      <c r="R14">
+        <v>18.51763106746</v>
+      </c>
+      <c r="S14">
+        <v>0.007397245940895494</v>
+      </c>
+      <c r="T14">
+        <v>0.007397245940895491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.73909</v>
+      </c>
+      <c r="I15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N15">
+        <v>31.705039</v>
+      </c>
+      <c r="O15">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P15">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q15">
+        <v>23.74034569716778</v>
+      </c>
+      <c r="R15">
+        <v>213.66311127451</v>
+      </c>
+      <c r="S15">
+        <v>0.0853520937336217</v>
+      </c>
+      <c r="T15">
+        <v>0.08535209373362168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H10">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I10">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J10">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>12.4297498389217</v>
-      </c>
-      <c r="N10">
-        <v>12.4297498389217</v>
-      </c>
-      <c r="O10">
-        <v>0.5285549816889141</v>
-      </c>
-      <c r="P10">
-        <v>0.5285549816889141</v>
-      </c>
-      <c r="Q10">
-        <v>27.19526649103096</v>
-      </c>
-      <c r="R10">
-        <v>27.19526649103096</v>
-      </c>
-      <c r="S10">
-        <v>0.1085665349000775</v>
-      </c>
-      <c r="T10">
-        <v>0.1085665349000775</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.73909</v>
+      </c>
+      <c r="I16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.662902</v>
+      </c>
+      <c r="O16">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P16">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q16">
+        <v>2.742736248797778</v>
+      </c>
+      <c r="R16">
+        <v>24.68462623918</v>
+      </c>
+      <c r="S16">
+        <v>0.009860778119246925</v>
+      </c>
+      <c r="T16">
+        <v>0.009860778119246922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.73909</v>
+      </c>
+      <c r="I17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N17">
+        <v>37.345108</v>
+      </c>
+      <c r="O17">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P17">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q17">
+        <v>27.96356043019112</v>
+      </c>
+      <c r="R17">
+        <v>251.67204387172</v>
+      </c>
+      <c r="S17">
+        <v>0.1005355381681829</v>
+      </c>
+      <c r="T17">
+        <v>0.1005355381681828</v>
       </c>
     </row>
   </sheetData>
